--- a/Congreso_2014/Datos_filtrados_2014.xlsx
+++ b/Congreso_2014/Datos_filtrados_2014.xlsx
@@ -3921,13 +3921,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C495" activeCellId="0" sqref="C495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>19</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>20</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>22</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>37</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>40</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>43</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>40</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>43</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>37</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>49</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>51</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>53</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>56</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>59</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>61</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>65</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>67</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>70</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>74</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>78</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>81</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>84</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>87</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>90</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>93</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>96</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>98</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>102</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>104</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>107</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>110</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>113</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>118</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>22</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>126</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>128</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>132</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>135</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>138</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>140</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>142</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>144</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>147</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>149</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>151</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>153</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>155</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>157</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>160</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>164</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>166</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>168</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>173</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>177</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>179</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>183</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>186</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>189</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>192</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>195</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>198</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>200</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>204</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>205</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>206</v>
@@ -5560,7 +5560,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>207</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>210</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>212</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>214</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>217</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>219</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>221</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>224</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>230</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>232</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>235</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>237</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>239</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>241</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>244</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>246</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>248</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>250</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>252</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>254</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>258</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>261</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>263</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>265</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>56</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>269</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>59</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>273</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>275</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>258</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>200</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>279</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>282</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>285</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>287</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>290</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>292</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>294</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>298</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>300</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>149</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>303</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>61</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>306</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>308</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>310</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>312</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>314</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>316</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>318</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>320</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>322</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>326</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>328</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>330</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>332</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>336</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>338</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>341</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>343</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>345</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>347</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>351</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>354</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>356</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>358</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>360</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>362</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>365</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>81</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>369</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>372</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>374</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>377</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>379</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>381</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>384</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>387</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>389</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>285</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>392</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>397</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>400</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>402</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>404</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>406</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>408</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>20</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>336</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>415</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>418</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>420</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>422</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>425</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>428</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>431</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>433</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>435</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>437</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>439</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>441</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>443</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>445</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>447</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>450</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>452</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>454</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>456</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>458</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>461</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>14</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>466</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>469</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>471</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>473</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>475</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>478</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>481</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>484</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>488</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>492</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>495</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>498</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>500</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>504</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>509</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>512</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>514</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>516</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>518</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>520</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>523</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>525</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>527</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>531</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>534</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>173</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>540</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>544</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>248</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>341</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>548</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>550</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>553</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>555</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>557</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>561</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>564</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>566</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>568</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>571</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>575</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>579</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>582</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>586</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>589</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>591</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>343</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>594</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>597</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>599</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>205</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E246" s="0" t="s">
         <v>600</v>
@@ -8860,7 +8860,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>601</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>603</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>606</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>609</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>617</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>619</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>621</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>623</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>625</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>627</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>629</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>631</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>633</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>635</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>637</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>640</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>642</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>645</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>647</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>649</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>652</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>654</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>656</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>658</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>660</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>663</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>665</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>667</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>669</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>671</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>250</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>676</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>682</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>684</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>687</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>689</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>691</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>693</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>205</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E288" s="0" t="s">
         <v>694</v>
@@ -9700,7 +9700,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>695</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>697</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>699</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>701</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>704</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>706</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>708</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>710</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>713</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>715</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>718</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>720</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>723</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>725</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>727</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>729</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>734</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>736</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>738</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>741</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>744</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>746</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>749</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>752</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>755</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>757</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>759</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>763</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>765</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>768</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>770</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>772</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>774</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>776</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>778</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>780</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>782</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>784</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>786</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>788</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>791</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>794</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>797</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>800</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>802</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>805</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>808</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>811</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>814</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>817</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>819</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>824</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>827</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>829</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>831</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>833</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>836</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>839</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>843</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>845</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>848</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>850</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>852</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>855</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>857</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>860</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>864</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>869</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>875</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>878</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>880</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>882</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>884</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>887</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>889</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>891</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>893</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>896</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>898</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>900</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>902</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>904</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>906</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>909</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>911</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
         <v>913</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
         <v>915</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
         <v>917</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
         <v>920</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>922</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>924</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>927</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>929</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>931</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>933</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>937</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>939</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>941</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>943</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>945</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>947</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>949</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>955</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>957</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>959</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>961</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>964</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>966</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>968</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>970</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>972</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>980</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>982</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>984</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>183</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>986</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>988</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
         <v>990</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
         <v>993</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
         <v>998</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
         <v>372</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
         <v>1002</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
         <v>1004</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
         <v>1007</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
         <v>1009</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>1011</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>1014</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>1017</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>1019</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>1021</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>1023</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>1026</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>1028</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>1030</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>362</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
         <v>1034</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>1037</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>1039</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>1043</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>1045</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>1048</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>1051</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>1054</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>1056</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>1059</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>1064</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>1067</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>1070</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>1072</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>1075</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>1077</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>312</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>1081</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>1083</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>1086</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>1089</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>1091</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>1094</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>1097</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>1099</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>1102</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>1105</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>1108</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>1110</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>1112</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>1114</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>1118</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>1120</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>1122</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>1125</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
         <v>1129</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
         <v>1132</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>1134</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>1136</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
         <v>1139</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>1141</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
         <v>1144</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
         <v>1148</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
         <v>1150</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>1153</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>1155</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
         <v>1157</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
         <v>1159</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
         <v>1161</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
         <v>1161</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
         <v>1164</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
         <v>1166</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>1170</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
         <v>1173</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
         <v>1178</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
         <v>1180</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
         <v>1182</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>1184</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
         <v>1186</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>1189</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
         <v>1192</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>1194</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
         <v>1196</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>1198</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
         <v>1200</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
         <v>153</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
         <v>1208</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
         <v>1210</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>205</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E511" s="0" t="s">
         <v>1211</v>
@@ -14160,7 +14160,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
         <v>1212</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
         <v>155</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
         <v>1218</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>1220</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>205</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E516" s="0" t="s">
         <v>1221</v>
@@ -14260,7 +14260,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
         <v>49</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>1223</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
         <v>1225</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>420</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
         <v>384</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>20</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
         <v>63</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
         <v>74</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
         <v>1234</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
         <v>1236</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
         <v>1239</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
         <v>1243</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
         <v>1245</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>205</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E531" s="0" t="s">
         <v>1246</v>
@@ -14560,7 +14560,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
         <v>1248</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
         <v>1250</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>1252</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
         <v>1254</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
         <v>1256</v>
       </c>
@@ -14663,7 +14663,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F536"/>
+  <autoFilter ref="A1:F536">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Norte"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Congreso_2014/Datos_filtrados_2014.xlsx
+++ b/Congreso_2014/Datos_filtrados_2014.xlsx
@@ -3926,14 +3926,14 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C495" activeCellId="0" sqref="C495"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="34.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.26"/>
@@ -4200,7 +4200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>32</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>32</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>63</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>100</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>115</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>123</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>160</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>164</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>166</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>168</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>170</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>173</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>177</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>179</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>183</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>186</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>189</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>192</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>195</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>198</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>227</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>241</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>244</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>246</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>248</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>250</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>252</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>254</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>258</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>261</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>263</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>265</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>63</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>394</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>488</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>227</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>248</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>612</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>614</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>635</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>674</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>679</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>691</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>727</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>729</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>732</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>759</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>761</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>808</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>821</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>833</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>841</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>867</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>872</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>935</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>953</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>966</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>975</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>977</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>183</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
         <v>996</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>1043</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>1062</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>1064</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>115</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
         <v>1146</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>1168</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
         <v>1175</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
         <v>1203</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
         <v>1206</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
         <v>1214</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
         <v>1231</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
         <v>175</v>
       </c>
@@ -14664,10 +14664,13 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:F536">
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Norte"/>
-      </customFilters>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="07.     Pensamiento y cultura en Colombia: temas y problemas"/>
+        <filter val="10.  Fernando González, filósofo"/>
+        <filter val="11.  Inteligencia y realidad en perspectiva zubiriana"/>
+        <filter val="Filosofía latinoamericana y colombiana"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
